--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_229.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_229.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33268-d78460-Reviews-DoubleTree_by_Hilton_Whittier_Los_Angeles-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>759</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Doubletree-By-Hilton-Whittier-Los-Angeles.h14367.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_229.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_229.xlsx
@@ -9747,7 +9747,7 @@
         <v>19713</v>
       </c>
       <c r="B2" t="n">
-        <v>142642</v>
+        <v>173846</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -9818,7 +9818,7 @@
         <v>19713</v>
       </c>
       <c r="B3" t="n">
-        <v>142643</v>
+        <v>173847</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -9960,7 +9960,7 @@
         <v>19713</v>
       </c>
       <c r="B5" t="n">
-        <v>142644</v>
+        <v>173848</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -10035,7 +10035,7 @@
         <v>19713</v>
       </c>
       <c r="B6" t="n">
-        <v>142645</v>
+        <v>173849</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -10106,7 +10106,7 @@
         <v>19713</v>
       </c>
       <c r="B7" t="n">
-        <v>142646</v>
+        <v>173850</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -10177,7 +10177,7 @@
         <v>19713</v>
       </c>
       <c r="B8" t="n">
-        <v>142647</v>
+        <v>173851</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -10248,7 +10248,7 @@
         <v>19713</v>
       </c>
       <c r="B9" t="n">
-        <v>142648</v>
+        <v>173852</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
@@ -10319,7 +10319,7 @@
         <v>19713</v>
       </c>
       <c r="B10" t="n">
-        <v>142649</v>
+        <v>173853</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -10390,7 +10390,7 @@
         <v>19713</v>
       </c>
       <c r="B11" t="n">
-        <v>142650</v>
+        <v>173854</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -10532,7 +10532,7 @@
         <v>19713</v>
       </c>
       <c r="B13" t="n">
-        <v>142651</v>
+        <v>173855</v>
       </c>
       <c r="C13" t="s">
         <v>122</v>
@@ -10603,7 +10603,7 @@
         <v>19713</v>
       </c>
       <c r="B14" t="n">
-        <v>142652</v>
+        <v>173856</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -10674,7 +10674,7 @@
         <v>19713</v>
       </c>
       <c r="B15" t="n">
-        <v>142653</v>
+        <v>173857</v>
       </c>
       <c r="C15" t="s">
         <v>135</v>
@@ -10938,7 +10938,7 @@
         <v>19713</v>
       </c>
       <c r="B19" t="n">
-        <v>142654</v>
+        <v>173858</v>
       </c>
       <c r="C19" t="s">
         <v>161</v>
@@ -11009,7 +11009,7 @@
         <v>19713</v>
       </c>
       <c r="B20" t="n">
-        <v>142655</v>
+        <v>173859</v>
       </c>
       <c r="C20" t="s">
         <v>167</v>
@@ -11080,7 +11080,7 @@
         <v>19713</v>
       </c>
       <c r="B21" t="n">
-        <v>142656</v>
+        <v>173860</v>
       </c>
       <c r="C21" t="s">
         <v>173</v>
@@ -11151,7 +11151,7 @@
         <v>19713</v>
       </c>
       <c r="B22" t="n">
-        <v>142657</v>
+        <v>173861</v>
       </c>
       <c r="C22" t="s">
         <v>179</v>
@@ -11222,7 +11222,7 @@
         <v>19713</v>
       </c>
       <c r="B23" t="n">
-        <v>142658</v>
+        <v>173862</v>
       </c>
       <c r="C23" t="s">
         <v>184</v>
@@ -11293,7 +11293,7 @@
         <v>19713</v>
       </c>
       <c r="B24" t="n">
-        <v>142659</v>
+        <v>173863</v>
       </c>
       <c r="C24" t="s">
         <v>190</v>
@@ -11364,7 +11364,7 @@
         <v>19713</v>
       </c>
       <c r="B25" t="n">
-        <v>142660</v>
+        <v>173864</v>
       </c>
       <c r="C25" t="s">
         <v>197</v>
@@ -11435,7 +11435,7 @@
         <v>19713</v>
       </c>
       <c r="B26" t="n">
-        <v>142661</v>
+        <v>173865</v>
       </c>
       <c r="C26" t="s">
         <v>203</v>
@@ -11506,7 +11506,7 @@
         <v>19713</v>
       </c>
       <c r="B27" t="n">
-        <v>142662</v>
+        <v>173866</v>
       </c>
       <c r="C27" t="s">
         <v>210</v>
@@ -11648,7 +11648,7 @@
         <v>19713</v>
       </c>
       <c r="B29" t="n">
-        <v>142663</v>
+        <v>173867</v>
       </c>
       <c r="C29" t="s">
         <v>222</v>
@@ -11713,7 +11713,7 @@
         <v>19713</v>
       </c>
       <c r="B30" t="n">
-        <v>142664</v>
+        <v>173868</v>
       </c>
       <c r="C30" t="s">
         <v>229</v>
@@ -11855,7 +11855,7 @@
         <v>19713</v>
       </c>
       <c r="B32" t="n">
-        <v>142665</v>
+        <v>173869</v>
       </c>
       <c r="C32" t="s">
         <v>240</v>
@@ -11926,7 +11926,7 @@
         <v>19713</v>
       </c>
       <c r="B33" t="n">
-        <v>142666</v>
+        <v>173870</v>
       </c>
       <c r="C33" t="s">
         <v>246</v>
@@ -11997,7 +11997,7 @@
         <v>19713</v>
       </c>
       <c r="B34" t="n">
-        <v>142667</v>
+        <v>173871</v>
       </c>
       <c r="C34" t="s">
         <v>253</v>
@@ -12058,7 +12058,7 @@
         <v>19713</v>
       </c>
       <c r="B35" t="n">
-        <v>142668</v>
+        <v>173872</v>
       </c>
       <c r="C35" t="s">
         <v>259</v>
@@ -12200,7 +12200,7 @@
         <v>19713</v>
       </c>
       <c r="B37" t="n">
-        <v>142669</v>
+        <v>173873</v>
       </c>
       <c r="C37" t="s">
         <v>272</v>
@@ -12271,7 +12271,7 @@
         <v>19713</v>
       </c>
       <c r="B38" t="n">
-        <v>142670</v>
+        <v>142650</v>
       </c>
       <c r="C38" t="s">
         <v>277</v>
@@ -12407,7 +12407,7 @@
         <v>19713</v>
       </c>
       <c r="B40" t="n">
-        <v>142669</v>
+        <v>142650</v>
       </c>
       <c r="C40" t="s">
         <v>277</v>
@@ -12478,7 +12478,7 @@
         <v>19713</v>
       </c>
       <c r="B41" t="n">
-        <v>142671</v>
+        <v>173874</v>
       </c>
       <c r="C41" t="s">
         <v>294</v>
@@ -12549,7 +12549,7 @@
         <v>19713</v>
       </c>
       <c r="B42" t="n">
-        <v>142672</v>
+        <v>173875</v>
       </c>
       <c r="C42" t="s">
         <v>300</v>
@@ -12620,7 +12620,7 @@
         <v>19713</v>
       </c>
       <c r="B43" t="n">
-        <v>142673</v>
+        <v>173876</v>
       </c>
       <c r="C43" t="s">
         <v>306</v>
@@ -12839,7 +12839,7 @@
         <v>19713</v>
       </c>
       <c r="B46" t="n">
-        <v>142674</v>
+        <v>173877</v>
       </c>
       <c r="C46" t="s">
         <v>328</v>
@@ -12904,7 +12904,7 @@
         <v>19713</v>
       </c>
       <c r="B47" t="n">
-        <v>142675</v>
+        <v>173878</v>
       </c>
       <c r="C47" t="s">
         <v>334</v>
@@ -12969,7 +12969,7 @@
         <v>19713</v>
       </c>
       <c r="B48" t="n">
-        <v>142676</v>
+        <v>173879</v>
       </c>
       <c r="C48" t="s">
         <v>343</v>
@@ -13119,7 +13119,7 @@
         <v>19713</v>
       </c>
       <c r="B50" t="n">
-        <v>142677</v>
+        <v>173880</v>
       </c>
       <c r="C50" t="s">
         <v>356</v>
@@ -13269,7 +13269,7 @@
         <v>19713</v>
       </c>
       <c r="B52" t="n">
-        <v>142678</v>
+        <v>173881</v>
       </c>
       <c r="C52" t="s">
         <v>370</v>
@@ -13415,7 +13415,7 @@
         <v>19713</v>
       </c>
       <c r="B54" t="n">
-        <v>142679</v>
+        <v>173882</v>
       </c>
       <c r="C54" t="s">
         <v>385</v>
@@ -13555,7 +13555,7 @@
         <v>19713</v>
       </c>
       <c r="B56" t="n">
-        <v>142680</v>
+        <v>173883</v>
       </c>
       <c r="C56" t="s">
         <v>399</v>
@@ -13630,7 +13630,7 @@
         <v>19713</v>
       </c>
       <c r="B57" t="n">
-        <v>142681</v>
+        <v>173884</v>
       </c>
       <c r="C57" t="s">
         <v>406</v>
@@ -13705,7 +13705,7 @@
         <v>19713</v>
       </c>
       <c r="B58" t="n">
-        <v>142682</v>
+        <v>173885</v>
       </c>
       <c r="C58" t="s">
         <v>412</v>
@@ -13780,7 +13780,7 @@
         <v>19713</v>
       </c>
       <c r="B59" t="n">
-        <v>142683</v>
+        <v>173886</v>
       </c>
       <c r="C59" t="s">
         <v>419</v>
@@ -13855,7 +13855,7 @@
         <v>19713</v>
       </c>
       <c r="B60" t="n">
-        <v>142684</v>
+        <v>173887</v>
       </c>
       <c r="C60" t="s">
         <v>426</v>
@@ -13930,7 +13930,7 @@
         <v>19713</v>
       </c>
       <c r="B61" t="n">
-        <v>142685</v>
+        <v>173888</v>
       </c>
       <c r="C61" t="s">
         <v>434</v>
@@ -14080,7 +14080,7 @@
         <v>19713</v>
       </c>
       <c r="B63" t="n">
-        <v>142686</v>
+        <v>173889</v>
       </c>
       <c r="C63" t="s">
         <v>448</v>
@@ -14155,7 +14155,7 @@
         <v>19713</v>
       </c>
       <c r="B64" t="n">
-        <v>142687</v>
+        <v>173890</v>
       </c>
       <c r="C64" t="s">
         <v>455</v>
@@ -14305,7 +14305,7 @@
         <v>19713</v>
       </c>
       <c r="B66" t="n">
-        <v>142688</v>
+        <v>173891</v>
       </c>
       <c r="C66" t="s">
         <v>469</v>
@@ -14376,7 +14376,7 @@
         <v>19713</v>
       </c>
       <c r="B67" t="n">
-        <v>142689</v>
+        <v>173892</v>
       </c>
       <c r="C67" t="s">
         <v>475</v>
@@ -14451,7 +14451,7 @@
         <v>19713</v>
       </c>
       <c r="B68" t="n">
-        <v>142690</v>
+        <v>173893</v>
       </c>
       <c r="C68" t="s">
         <v>482</v>
@@ -14526,7 +14526,7 @@
         <v>19713</v>
       </c>
       <c r="B69" t="n">
-        <v>142691</v>
+        <v>173894</v>
       </c>
       <c r="C69" t="s">
         <v>489</v>
@@ -14599,7 +14599,7 @@
         <v>19713</v>
       </c>
       <c r="B70" t="n">
-        <v>142692</v>
+        <v>173895</v>
       </c>
       <c r="C70" t="s">
         <v>496</v>
@@ -14674,7 +14674,7 @@
         <v>19713</v>
       </c>
       <c r="B71" t="n">
-        <v>142693</v>
+        <v>173896</v>
       </c>
       <c r="C71" t="s">
         <v>501</v>
@@ -14745,7 +14745,7 @@
         <v>19713</v>
       </c>
       <c r="B72" t="n">
-        <v>142694</v>
+        <v>173897</v>
       </c>
       <c r="C72" t="s">
         <v>509</v>
@@ -14970,7 +14970,7 @@
         <v>19713</v>
       </c>
       <c r="B75" t="n">
-        <v>142695</v>
+        <v>173898</v>
       </c>
       <c r="C75" t="s">
         <v>529</v>
@@ -15045,7 +15045,7 @@
         <v>19713</v>
       </c>
       <c r="B76" t="n">
-        <v>142696</v>
+        <v>173899</v>
       </c>
       <c r="C76" t="s">
         <v>535</v>
@@ -15195,7 +15195,7 @@
         <v>19713</v>
       </c>
       <c r="B78" t="n">
-        <v>142697</v>
+        <v>173900</v>
       </c>
       <c r="C78" t="s">
         <v>548</v>
@@ -15270,7 +15270,7 @@
         <v>19713</v>
       </c>
       <c r="B79" t="n">
-        <v>142698</v>
+        <v>173901</v>
       </c>
       <c r="C79" t="s">
         <v>555</v>
@@ -15345,7 +15345,7 @@
         <v>19713</v>
       </c>
       <c r="B80" t="n">
-        <v>142699</v>
+        <v>173902</v>
       </c>
       <c r="C80" t="s">
         <v>562</v>
@@ -15420,7 +15420,7 @@
         <v>19713</v>
       </c>
       <c r="B81" t="n">
-        <v>142700</v>
+        <v>173903</v>
       </c>
       <c r="C81" t="s">
         <v>569</v>
@@ -15485,7 +15485,7 @@
         <v>19713</v>
       </c>
       <c r="B82" t="n">
-        <v>142701</v>
+        <v>173904</v>
       </c>
       <c r="C82" t="s">
         <v>576</v>
@@ -15560,7 +15560,7 @@
         <v>19713</v>
       </c>
       <c r="B83" t="n">
-        <v>142702</v>
+        <v>173905</v>
       </c>
       <c r="C83" t="s">
         <v>582</v>
@@ -15635,7 +15635,7 @@
         <v>19713</v>
       </c>
       <c r="B84" t="n">
-        <v>142703</v>
+        <v>173906</v>
       </c>
       <c r="C84" t="s">
         <v>589</v>
@@ -15710,7 +15710,7 @@
         <v>19713</v>
       </c>
       <c r="B85" t="n">
-        <v>142704</v>
+        <v>173907</v>
       </c>
       <c r="C85" t="s">
         <v>597</v>
@@ -15785,7 +15785,7 @@
         <v>19713</v>
       </c>
       <c r="B86" t="n">
-        <v>142705</v>
+        <v>173908</v>
       </c>
       <c r="C86" t="s">
         <v>604</v>
@@ -15860,7 +15860,7 @@
         <v>19713</v>
       </c>
       <c r="B87" t="n">
-        <v>142706</v>
+        <v>173909</v>
       </c>
       <c r="C87" t="s">
         <v>613</v>
@@ -15935,7 +15935,7 @@
         <v>19713</v>
       </c>
       <c r="B88" t="n">
-        <v>142707</v>
+        <v>173910</v>
       </c>
       <c r="C88" t="s">
         <v>620</v>
@@ -16081,7 +16081,7 @@
         <v>19713</v>
       </c>
       <c r="B90" t="n">
-        <v>142708</v>
+        <v>173911</v>
       </c>
       <c r="C90" t="s">
         <v>636</v>
@@ -16294,7 +16294,7 @@
         <v>19713</v>
       </c>
       <c r="B93" t="n">
-        <v>142709</v>
+        <v>173912</v>
       </c>
       <c r="C93" t="s">
         <v>656</v>
@@ -16369,7 +16369,7 @@
         <v>19713</v>
       </c>
       <c r="B94" t="n">
-        <v>142710</v>
+        <v>173913</v>
       </c>
       <c r="C94" t="s">
         <v>663</v>
@@ -16444,7 +16444,7 @@
         <v>19713</v>
       </c>
       <c r="B95" t="n">
-        <v>142711</v>
+        <v>173914</v>
       </c>
       <c r="C95" t="s">
         <v>669</v>
@@ -16519,7 +16519,7 @@
         <v>19713</v>
       </c>
       <c r="B96" t="n">
-        <v>142712</v>
+        <v>173915</v>
       </c>
       <c r="C96" t="s">
         <v>676</v>
@@ -16590,7 +16590,7 @@
         <v>19713</v>
       </c>
       <c r="B97" t="n">
-        <v>142713</v>
+        <v>173916</v>
       </c>
       <c r="C97" t="s">
         <v>683</v>
@@ -16661,7 +16661,7 @@
         <v>19713</v>
       </c>
       <c r="B98" t="n">
-        <v>142714</v>
+        <v>173917</v>
       </c>
       <c r="C98" t="s">
         <v>691</v>
@@ -16736,7 +16736,7 @@
         <v>19713</v>
       </c>
       <c r="B99" t="n">
-        <v>142715</v>
+        <v>173918</v>
       </c>
       <c r="C99" t="s">
         <v>698</v>
@@ -16880,7 +16880,7 @@
         <v>19713</v>
       </c>
       <c r="B101" t="n">
-        <v>142716</v>
+        <v>173919</v>
       </c>
       <c r="C101" t="s">
         <v>712</v>
@@ -17026,7 +17026,7 @@
         <v>19713</v>
       </c>
       <c r="B103" t="n">
-        <v>142717</v>
+        <v>173920</v>
       </c>
       <c r="C103" t="s">
         <v>726</v>
@@ -17101,7 +17101,7 @@
         <v>19713</v>
       </c>
       <c r="B104" t="n">
-        <v>142718</v>
+        <v>173921</v>
       </c>
       <c r="C104" t="s">
         <v>733</v>
@@ -17170,7 +17170,7 @@
         <v>19713</v>
       </c>
       <c r="B105" t="n">
-        <v>142719</v>
+        <v>173922</v>
       </c>
       <c r="C105" t="s">
         <v>739</v>
@@ -17241,7 +17241,7 @@
         <v>19713</v>
       </c>
       <c r="B106" t="n">
-        <v>142720</v>
+        <v>173923</v>
       </c>
       <c r="C106" t="s">
         <v>745</v>
@@ -17302,7 +17302,7 @@
         <v>19713</v>
       </c>
       <c r="B107" t="n">
-        <v>142721</v>
+        <v>173924</v>
       </c>
       <c r="C107" t="s">
         <v>752</v>
@@ -17367,7 +17367,7 @@
         <v>19713</v>
       </c>
       <c r="B108" t="n">
-        <v>142722</v>
+        <v>173925</v>
       </c>
       <c r="C108" t="s">
         <v>760</v>
@@ -17442,7 +17442,7 @@
         <v>19713</v>
       </c>
       <c r="B109" t="n">
-        <v>142723</v>
+        <v>142765</v>
       </c>
       <c r="C109" t="s">
         <v>768</v>
@@ -17507,7 +17507,7 @@
         <v>19713</v>
       </c>
       <c r="B110" t="n">
-        <v>142724</v>
+        <v>173926</v>
       </c>
       <c r="C110" t="s">
         <v>775</v>
@@ -17578,7 +17578,7 @@
         <v>19713</v>
       </c>
       <c r="B111" t="n">
-        <v>142725</v>
+        <v>173927</v>
       </c>
       <c r="C111" t="s">
         <v>781</v>
@@ -17710,7 +17710,7 @@
         <v>19713</v>
       </c>
       <c r="B113" t="n">
-        <v>142726</v>
+        <v>173928</v>
       </c>
       <c r="C113" t="s">
         <v>792</v>
@@ -17781,7 +17781,7 @@
         <v>19713</v>
       </c>
       <c r="B114" t="n">
-        <v>142727</v>
+        <v>173929</v>
       </c>
       <c r="C114" t="s">
         <v>798</v>
@@ -17927,7 +17927,7 @@
         <v>19713</v>
       </c>
       <c r="B116" t="n">
-        <v>142728</v>
+        <v>173930</v>
       </c>
       <c r="C116" t="s">
         <v>811</v>
@@ -17998,7 +17998,7 @@
         <v>19713</v>
       </c>
       <c r="B117" t="n">
-        <v>142729</v>
+        <v>173931</v>
       </c>
       <c r="C117" t="s">
         <v>819</v>
@@ -18073,7 +18073,7 @@
         <v>19713</v>
       </c>
       <c r="B118" t="n">
-        <v>142730</v>
+        <v>173932</v>
       </c>
       <c r="C118" t="s">
         <v>826</v>
@@ -18205,7 +18205,7 @@
         <v>19713</v>
       </c>
       <c r="B120" t="n">
-        <v>142731</v>
+        <v>173933</v>
       </c>
       <c r="C120" t="s">
         <v>841</v>
@@ -18270,7 +18270,7 @@
         <v>19713</v>
       </c>
       <c r="B121" t="n">
-        <v>142732</v>
+        <v>173934</v>
       </c>
       <c r="C121" t="s">
         <v>848</v>
@@ -18337,7 +18337,7 @@
         <v>19713</v>
       </c>
       <c r="B122" t="n">
-        <v>142733</v>
+        <v>173935</v>
       </c>
       <c r="C122" t="s">
         <v>856</v>
@@ -18479,7 +18479,7 @@
         <v>19713</v>
       </c>
       <c r="B124" t="n">
-        <v>142734</v>
+        <v>173936</v>
       </c>
       <c r="C124" t="s">
         <v>867</v>
@@ -18554,7 +18554,7 @@
         <v>19713</v>
       </c>
       <c r="B125" t="n">
-        <v>142735</v>
+        <v>173937</v>
       </c>
       <c r="C125" t="s">
         <v>877</v>
@@ -18629,7 +18629,7 @@
         <v>19713</v>
       </c>
       <c r="B126" t="n">
-        <v>142736</v>
+        <v>173938</v>
       </c>
       <c r="C126" t="s">
         <v>886</v>
@@ -18771,7 +18771,7 @@
         <v>19713</v>
       </c>
       <c r="B128" t="n">
-        <v>142737</v>
+        <v>142688</v>
       </c>
       <c r="C128" t="s">
         <v>899</v>
@@ -18842,7 +18842,7 @@
         <v>19713</v>
       </c>
       <c r="B129" t="n">
-        <v>142738</v>
+        <v>173939</v>
       </c>
       <c r="C129" t="s">
         <v>905</v>
@@ -18903,7 +18903,7 @@
         <v>19713</v>
       </c>
       <c r="B130" t="n">
-        <v>142739</v>
+        <v>173940</v>
       </c>
       <c r="C130" t="s">
         <v>912</v>
@@ -19047,7 +19047,7 @@
         <v>19713</v>
       </c>
       <c r="B132" t="n">
-        <v>142740</v>
+        <v>142690</v>
       </c>
       <c r="C132" t="s">
         <v>931</v>
@@ -19118,7 +19118,7 @@
         <v>19713</v>
       </c>
       <c r="B133" t="n">
-        <v>142741</v>
+        <v>173941</v>
       </c>
       <c r="C133" t="s">
         <v>936</v>
@@ -19187,7 +19187,7 @@
         <v>19713</v>
       </c>
       <c r="B134" t="n">
-        <v>142742</v>
+        <v>173942</v>
       </c>
       <c r="C134" t="s">
         <v>942</v>
@@ -19258,7 +19258,7 @@
         <v>19713</v>
       </c>
       <c r="B135" t="n">
-        <v>142743</v>
+        <v>173943</v>
       </c>
       <c r="C135" t="s">
         <v>948</v>
@@ -19329,7 +19329,7 @@
         <v>19713</v>
       </c>
       <c r="B136" t="n">
-        <v>142744</v>
+        <v>173944</v>
       </c>
       <c r="C136" t="s">
         <v>954</v>
@@ -19398,7 +19398,7 @@
         <v>19713</v>
       </c>
       <c r="B137" t="n">
-        <v>142745</v>
+        <v>173945</v>
       </c>
       <c r="C137" t="s">
         <v>963</v>
@@ -19473,7 +19473,7 @@
         <v>19713</v>
       </c>
       <c r="B138" t="n">
-        <v>142746</v>
+        <v>173946</v>
       </c>
       <c r="C138" t="s">
         <v>971</v>
@@ -19544,7 +19544,7 @@
         <v>19713</v>
       </c>
       <c r="B139" t="n">
-        <v>142747</v>
+        <v>173947</v>
       </c>
       <c r="C139" t="s">
         <v>977</v>
@@ -19818,7 +19818,7 @@
         <v>19713</v>
       </c>
       <c r="B143" t="n">
-        <v>142748</v>
+        <v>173948</v>
       </c>
       <c r="C143" t="s">
         <v>1003</v>
@@ -19889,7 +19889,7 @@
         <v>19713</v>
       </c>
       <c r="B144" t="n">
-        <v>142749</v>
+        <v>173949</v>
       </c>
       <c r="C144" t="s">
         <v>1011</v>
@@ -19960,7 +19960,7 @@
         <v>19713</v>
       </c>
       <c r="B145" t="n">
-        <v>142750</v>
+        <v>173950</v>
       </c>
       <c r="C145" t="s">
         <v>1017</v>
@@ -20029,7 +20029,7 @@
         <v>19713</v>
       </c>
       <c r="B146" t="n">
-        <v>142751</v>
+        <v>173951</v>
       </c>
       <c r="C146" t="s">
         <v>1024</v>
@@ -20173,7 +20173,7 @@
         <v>19713</v>
       </c>
       <c r="B148" t="n">
-        <v>142752</v>
+        <v>173952</v>
       </c>
       <c r="C148" t="s">
         <v>1036</v>
@@ -20238,7 +20238,7 @@
         <v>19713</v>
       </c>
       <c r="B149" t="n">
-        <v>142753</v>
+        <v>173953</v>
       </c>
       <c r="C149" t="s">
         <v>1045</v>
@@ -20309,7 +20309,7 @@
         <v>19713</v>
       </c>
       <c r="B150" t="n">
-        <v>142754</v>
+        <v>173954</v>
       </c>
       <c r="C150" t="s">
         <v>1051</v>
@@ -20380,7 +20380,7 @@
         <v>19713</v>
       </c>
       <c r="B151" t="n">
-        <v>142755</v>
+        <v>173955</v>
       </c>
       <c r="C151" t="s">
         <v>1056</v>
@@ -20451,7 +20451,7 @@
         <v>19713</v>
       </c>
       <c r="B152" t="n">
-        <v>142756</v>
+        <v>173956</v>
       </c>
       <c r="C152" t="s">
         <v>1063</v>
@@ -20522,7 +20522,7 @@
         <v>19713</v>
       </c>
       <c r="B153" t="n">
-        <v>142757</v>
+        <v>173957</v>
       </c>
       <c r="C153" t="s">
         <v>1068</v>
@@ -20583,7 +20583,7 @@
         <v>19713</v>
       </c>
       <c r="B154" t="n">
-        <v>142758</v>
+        <v>173958</v>
       </c>
       <c r="C154" t="s">
         <v>1074</v>
@@ -20654,7 +20654,7 @@
         <v>19713</v>
       </c>
       <c r="B155" t="n">
-        <v>142759</v>
+        <v>173959</v>
       </c>
       <c r="C155" t="s">
         <v>1081</v>
@@ -20729,7 +20729,7 @@
         <v>19713</v>
       </c>
       <c r="B156" t="n">
-        <v>142760</v>
+        <v>173960</v>
       </c>
       <c r="C156" t="s">
         <v>1090</v>
@@ -20791,7 +20791,7 @@
         <v>19713</v>
       </c>
       <c r="B157" t="n">
-        <v>142761</v>
+        <v>173961</v>
       </c>
       <c r="C157" t="s">
         <v>1094</v>
@@ -20866,7 +20866,7 @@
         <v>19713</v>
       </c>
       <c r="B158" t="n">
-        <v>142762</v>
+        <v>173962</v>
       </c>
       <c r="C158" t="s">
         <v>1102</v>
@@ -20937,7 +20937,7 @@
         <v>19713</v>
       </c>
       <c r="B159" t="n">
-        <v>142763</v>
+        <v>173963</v>
       </c>
       <c r="C159" t="s">
         <v>1109</v>
@@ -20998,7 +20998,7 @@
         <v>19713</v>
       </c>
       <c r="B160" t="n">
-        <v>142764</v>
+        <v>173964</v>
       </c>
       <c r="C160" t="s">
         <v>1116</v>
@@ -21069,7 +21069,7 @@
         <v>19713</v>
       </c>
       <c r="B161" t="n">
-        <v>142765</v>
+        <v>173965</v>
       </c>
       <c r="C161" t="s">
         <v>1121</v>
@@ -21140,7 +21140,7 @@
         <v>19713</v>
       </c>
       <c r="B162" t="n">
-        <v>142766</v>
+        <v>173966</v>
       </c>
       <c r="C162" t="s">
         <v>1127</v>
@@ -21213,7 +21213,7 @@
         <v>19713</v>
       </c>
       <c r="B163" t="n">
-        <v>142767</v>
+        <v>173967</v>
       </c>
       <c r="C163" t="s">
         <v>1133</v>
@@ -21282,7 +21282,7 @@
         <v>19713</v>
       </c>
       <c r="B164" t="n">
-        <v>142768</v>
+        <v>173968</v>
       </c>
       <c r="C164" t="s">
         <v>1140</v>
@@ -21353,7 +21353,7 @@
         <v>19713</v>
       </c>
       <c r="B165" t="n">
-        <v>142769</v>
+        <v>173969</v>
       </c>
       <c r="C165" t="s">
         <v>1146</v>
@@ -21424,7 +21424,7 @@
         <v>19713</v>
       </c>
       <c r="B166" t="n">
-        <v>142770</v>
+        <v>173970</v>
       </c>
       <c r="C166" t="s">
         <v>1151</v>
@@ -21495,7 +21495,7 @@
         <v>19713</v>
       </c>
       <c r="B167" t="n">
-        <v>142771</v>
+        <v>173971</v>
       </c>
       <c r="C167" t="s">
         <v>1160</v>
@@ -21562,7 +21562,7 @@
         <v>19713</v>
       </c>
       <c r="B168" t="n">
-        <v>142772</v>
+        <v>173972</v>
       </c>
       <c r="C168" t="s">
         <v>1167</v>
@@ -21633,7 +21633,7 @@
         <v>19713</v>
       </c>
       <c r="B169" t="n">
-        <v>142773</v>
+        <v>173973</v>
       </c>
       <c r="C169" t="s">
         <v>1175</v>
@@ -21777,7 +21777,7 @@
         <v>19713</v>
       </c>
       <c r="B171" t="n">
-        <v>142774</v>
+        <v>173974</v>
       </c>
       <c r="C171" t="s">
         <v>1187</v>
@@ -21838,7 +21838,7 @@
         <v>19713</v>
       </c>
       <c r="B172" t="n">
-        <v>142775</v>
+        <v>173975</v>
       </c>
       <c r="C172" t="s">
         <v>1194</v>
@@ -22055,7 +22055,7 @@
         <v>19713</v>
       </c>
       <c r="B175" t="n">
-        <v>142776</v>
+        <v>142769</v>
       </c>
       <c r="C175" t="s">
         <v>1214</v>
@@ -22120,7 +22120,7 @@
         <v>19713</v>
       </c>
       <c r="B176" t="n">
-        <v>142777</v>
+        <v>173976</v>
       </c>
       <c r="C176" t="s">
         <v>1221</v>
@@ -22191,7 +22191,7 @@
         <v>19713</v>
       </c>
       <c r="B177" t="n">
-        <v>142778</v>
+        <v>173977</v>
       </c>
       <c r="C177" t="s">
         <v>1227</v>
@@ -22258,7 +22258,7 @@
         <v>19713</v>
       </c>
       <c r="B178" t="n">
-        <v>142779</v>
+        <v>173978</v>
       </c>
       <c r="C178" t="s">
         <v>1233</v>
@@ -22333,7 +22333,7 @@
         <v>19713</v>
       </c>
       <c r="B179" t="n">
-        <v>142780</v>
+        <v>173979</v>
       </c>
       <c r="C179" t="s">
         <v>1241</v>
@@ -22473,7 +22473,7 @@
         <v>19713</v>
       </c>
       <c r="B181" t="n">
-        <v>142781</v>
+        <v>173980</v>
       </c>
       <c r="C181" t="s">
         <v>1256</v>
@@ -22611,7 +22611,7 @@
         <v>19713</v>
       </c>
       <c r="B183" t="n">
-        <v>142782</v>
+        <v>173981</v>
       </c>
       <c r="C183" t="s">
         <v>1268</v>
@@ -22673,7 +22673,7 @@
         <v>19713</v>
       </c>
       <c r="B184" t="n">
-        <v>142783</v>
+        <v>173982</v>
       </c>
       <c r="C184" t="s">
         <v>1272</v>
@@ -22744,7 +22744,7 @@
         <v>19713</v>
       </c>
       <c r="B185" t="n">
-        <v>142784</v>
+        <v>173983</v>
       </c>
       <c r="C185" t="s">
         <v>1278</v>
@@ -23085,7 +23085,7 @@
         <v>19713</v>
       </c>
       <c r="B190" t="n">
-        <v>142785</v>
+        <v>173984</v>
       </c>
       <c r="C190" t="s">
         <v>1316</v>
@@ -23160,7 +23160,7 @@
         <v>19713</v>
       </c>
       <c r="B191" t="n">
-        <v>142786</v>
+        <v>173985</v>
       </c>
       <c r="C191" t="s">
         <v>1323</v>
@@ -23302,7 +23302,7 @@
         <v>19713</v>
       </c>
       <c r="B193" t="n">
-        <v>142787</v>
+        <v>173986</v>
       </c>
       <c r="C193" t="s">
         <v>1335</v>
@@ -23377,7 +23377,7 @@
         <v>19713</v>
       </c>
       <c r="B194" t="n">
-        <v>142788</v>
+        <v>173987</v>
       </c>
       <c r="C194" t="s">
         <v>1344</v>
@@ -23452,7 +23452,7 @@
         <v>19713</v>
       </c>
       <c r="B195" t="n">
-        <v>142789</v>
+        <v>173988</v>
       </c>
       <c r="C195" t="s">
         <v>1353</v>
@@ -23598,7 +23598,7 @@
         <v>19713</v>
       </c>
       <c r="B197" t="n">
-        <v>142790</v>
+        <v>173989</v>
       </c>
       <c r="C197" t="s">
         <v>1368</v>
@@ -23669,7 +23669,7 @@
         <v>19713</v>
       </c>
       <c r="B198" t="n">
-        <v>142791</v>
+        <v>173990</v>
       </c>
       <c r="C198" t="s">
         <v>1374</v>
@@ -23731,7 +23731,7 @@
         <v>19713</v>
       </c>
       <c r="B199" t="n">
-        <v>142792</v>
+        <v>173991</v>
       </c>
       <c r="C199" t="s">
         <v>1377</v>
@@ -23798,7 +23798,7 @@
         <v>19713</v>
       </c>
       <c r="B200" t="n">
-        <v>142736</v>
+        <v>142688</v>
       </c>
       <c r="C200" t="s">
         <v>899</v>
@@ -23931,7 +23931,7 @@
         <v>19713</v>
       </c>
       <c r="B202" t="n">
-        <v>142793</v>
+        <v>173992</v>
       </c>
       <c r="C202" t="s">
         <v>1393</v>
@@ -24002,7 +24002,7 @@
         <v>19713</v>
       </c>
       <c r="B203" t="n">
-        <v>142739</v>
+        <v>142690</v>
       </c>
       <c r="C203" t="s">
         <v>931</v>
@@ -24138,7 +24138,7 @@
         <v>19713</v>
       </c>
       <c r="B205" t="n">
-        <v>142794</v>
+        <v>173993</v>
       </c>
       <c r="C205" t="s">
         <v>1412</v>
@@ -24203,7 +24203,7 @@
         <v>19713</v>
       </c>
       <c r="B206" t="n">
-        <v>142795</v>
+        <v>173994</v>
       </c>
       <c r="C206" t="s">
         <v>1419</v>
@@ -24412,7 +24412,7 @@
         <v>19713</v>
       </c>
       <c r="B209" t="n">
-        <v>142796</v>
+        <v>173995</v>
       </c>
       <c r="C209" t="s">
         <v>1437</v>
@@ -24487,7 +24487,7 @@
         <v>19713</v>
       </c>
       <c r="B210" t="n">
-        <v>142797</v>
+        <v>173996</v>
       </c>
       <c r="C210" t="s">
         <v>1446</v>
@@ -24629,7 +24629,7 @@
         <v>19713</v>
       </c>
       <c r="B212" t="n">
-        <v>142798</v>
+        <v>173997</v>
       </c>
       <c r="C212" t="s">
         <v>1457</v>
@@ -24700,7 +24700,7 @@
         <v>19713</v>
       </c>
       <c r="B213" t="n">
-        <v>142799</v>
+        <v>173998</v>
       </c>
       <c r="C213" t="s">
         <v>1463</v>
@@ -24846,7 +24846,7 @@
         <v>19713</v>
       </c>
       <c r="B215" t="n">
-        <v>142800</v>
+        <v>173999</v>
       </c>
       <c r="C215" t="s">
         <v>1478</v>
@@ -25052,7 +25052,7 @@
         <v>19713</v>
       </c>
       <c r="B218" t="n">
-        <v>142801</v>
+        <v>174000</v>
       </c>
       <c r="C218" t="s">
         <v>1498</v>
@@ -25119,7 +25119,7 @@
         <v>19713</v>
       </c>
       <c r="B219" t="n">
-        <v>142802</v>
+        <v>174001</v>
       </c>
       <c r="C219" t="s">
         <v>1504</v>
@@ -25190,7 +25190,7 @@
         <v>19713</v>
       </c>
       <c r="B220" t="n">
-        <v>142803</v>
+        <v>174002</v>
       </c>
       <c r="C220" t="s">
         <v>1510</v>
@@ -25261,7 +25261,7 @@
         <v>19713</v>
       </c>
       <c r="B221" t="n">
-        <v>142804</v>
+        <v>174003</v>
       </c>
       <c r="C221" t="s">
         <v>1520</v>
@@ -25332,7 +25332,7 @@
         <v>19713</v>
       </c>
       <c r="B222" t="n">
-        <v>142805</v>
+        <v>174004</v>
       </c>
       <c r="C222" t="s">
         <v>1526</v>
@@ -25403,7 +25403,7 @@
         <v>19713</v>
       </c>
       <c r="B223" t="n">
-        <v>142806</v>
+        <v>174005</v>
       </c>
       <c r="C223" t="s">
         <v>1532</v>
@@ -25478,7 +25478,7 @@
         <v>19713</v>
       </c>
       <c r="B224" t="n">
-        <v>142807</v>
+        <v>174006</v>
       </c>
       <c r="C224" t="s">
         <v>1541</v>
@@ -25551,7 +25551,7 @@
         <v>19713</v>
       </c>
       <c r="B225" t="n">
-        <v>142808</v>
+        <v>174007</v>
       </c>
       <c r="C225" t="s">
         <v>1547</v>
@@ -25613,7 +25613,7 @@
         <v>19713</v>
       </c>
       <c r="B226" t="n">
-        <v>142809</v>
+        <v>174008</v>
       </c>
       <c r="C226" t="s">
         <v>1551</v>
@@ -25743,7 +25743,7 @@
         <v>19713</v>
       </c>
       <c r="B228" t="n">
-        <v>142736</v>
+        <v>142688</v>
       </c>
       <c r="C228" t="s">
         <v>899</v>
@@ -25947,7 +25947,7 @@
         <v>19713</v>
       </c>
       <c r="B231" t="n">
-        <v>142810</v>
+        <v>174009</v>
       </c>
       <c r="C231" t="s">
         <v>1580</v>
@@ -26083,7 +26083,7 @@
         <v>19713</v>
       </c>
       <c r="B233" t="n">
-        <v>142811</v>
+        <v>174010</v>
       </c>
       <c r="C233" t="s">
         <v>1594</v>
@@ -26154,7 +26154,7 @@
         <v>19713</v>
       </c>
       <c r="B234" t="n">
-        <v>142812</v>
+        <v>174011</v>
       </c>
       <c r="C234" t="s">
         <v>1600</v>
@@ -26229,7 +26229,7 @@
         <v>19713</v>
       </c>
       <c r="B235" t="n">
-        <v>142813</v>
+        <v>174012</v>
       </c>
       <c r="C235" t="s">
         <v>1609</v>
@@ -26296,7 +26296,7 @@
         <v>19713</v>
       </c>
       <c r="B236" t="n">
-        <v>142814</v>
+        <v>174013</v>
       </c>
       <c r="C236" t="s">
         <v>1616</v>
@@ -26434,7 +26434,7 @@
         <v>19713</v>
       </c>
       <c r="B238" t="n">
-        <v>142815</v>
+        <v>174014</v>
       </c>
       <c r="C238" t="s">
         <v>1629</v>
@@ -26578,7 +26578,7 @@
         <v>19713</v>
       </c>
       <c r="B240" t="n">
-        <v>142816</v>
+        <v>174015</v>
       </c>
       <c r="C240" t="s">
         <v>1644</v>
@@ -26649,7 +26649,7 @@
         <v>19713</v>
       </c>
       <c r="B241" t="n">
-        <v>142817</v>
+        <v>174016</v>
       </c>
       <c r="C241" t="s">
         <v>1650</v>
@@ -26795,7 +26795,7 @@
         <v>19713</v>
       </c>
       <c r="B243" t="n">
-        <v>142818</v>
+        <v>174017</v>
       </c>
       <c r="C243" t="s">
         <v>1664</v>
@@ -26866,7 +26866,7 @@
         <v>19713</v>
       </c>
       <c r="B244" t="n">
-        <v>142819</v>
+        <v>174018</v>
       </c>
       <c r="C244" t="s">
         <v>1670</v>
@@ -26931,7 +26931,7 @@
         <v>19713</v>
       </c>
       <c r="B245" t="n">
-        <v>142820</v>
+        <v>174019</v>
       </c>
       <c r="C245" t="s">
         <v>1676</v>
@@ -27002,7 +27002,7 @@
         <v>19713</v>
       </c>
       <c r="B246" t="n">
-        <v>142821</v>
+        <v>174020</v>
       </c>
       <c r="C246" t="s">
         <v>1682</v>
@@ -27206,7 +27206,7 @@
         <v>19713</v>
       </c>
       <c r="B249" t="n">
-        <v>142822</v>
+        <v>174021</v>
       </c>
       <c r="C249" t="s">
         <v>1696</v>
@@ -27623,7 +27623,7 @@
         <v>19713</v>
       </c>
       <c r="B255" t="n">
-        <v>142823</v>
+        <v>174022</v>
       </c>
       <c r="C255" t="s">
         <v>1729</v>
@@ -27688,7 +27688,7 @@
         <v>19713</v>
       </c>
       <c r="B256" t="n">
-        <v>142824</v>
+        <v>174023</v>
       </c>
       <c r="C256" t="s">
         <v>1739</v>
@@ -27753,7 +27753,7 @@
         <v>19713</v>
       </c>
       <c r="B257" t="n">
-        <v>142825</v>
+        <v>174024</v>
       </c>
       <c r="C257" t="s">
         <v>1745</v>
@@ -27828,7 +27828,7 @@
         <v>19713</v>
       </c>
       <c r="B258" t="n">
-        <v>142826</v>
+        <v>174025</v>
       </c>
       <c r="C258" t="s">
         <v>1754</v>
@@ -27895,7 +27895,7 @@
         <v>19713</v>
       </c>
       <c r="B259" t="n">
-        <v>142827</v>
+        <v>174026</v>
       </c>
       <c r="C259" t="s">
         <v>1761</v>
@@ -27960,7 +27960,7 @@
         <v>19713</v>
       </c>
       <c r="B260" t="n">
-        <v>142828</v>
+        <v>174027</v>
       </c>
       <c r="C260" t="s">
         <v>1767</v>
@@ -28027,7 +28027,7 @@
         <v>19713</v>
       </c>
       <c r="B261" t="n">
-        <v>142829</v>
+        <v>174028</v>
       </c>
       <c r="C261" t="s">
         <v>1774</v>
@@ -28098,7 +28098,7 @@
         <v>19713</v>
       </c>
       <c r="B262" t="n">
-        <v>142830</v>
+        <v>174029</v>
       </c>
       <c r="C262" t="s">
         <v>1779</v>
@@ -28169,7 +28169,7 @@
         <v>19713</v>
       </c>
       <c r="B263" t="n">
-        <v>142831</v>
+        <v>174030</v>
       </c>
       <c r="C263" t="s">
         <v>1785</v>
@@ -28240,7 +28240,7 @@
         <v>19713</v>
       </c>
       <c r="B264" t="n">
-        <v>142832</v>
+        <v>174031</v>
       </c>
       <c r="C264" t="s">
         <v>1791</v>
@@ -28311,7 +28311,7 @@
         <v>19713</v>
       </c>
       <c r="B265" t="n">
-        <v>142833</v>
+        <v>174032</v>
       </c>
       <c r="C265" t="s">
         <v>1797</v>
@@ -28378,7 +28378,7 @@
         <v>19713</v>
       </c>
       <c r="B266" t="n">
-        <v>142834</v>
+        <v>174033</v>
       </c>
       <c r="C266" t="s">
         <v>1805</v>
@@ -28659,7 +28659,7 @@
         <v>19713</v>
       </c>
       <c r="B270" t="n">
-        <v>142835</v>
+        <v>174034</v>
       </c>
       <c r="C270" t="s">
         <v>1828</v>
@@ -28720,7 +28720,7 @@
         <v>19713</v>
       </c>
       <c r="B271" t="n">
-        <v>142836</v>
+        <v>174035</v>
       </c>
       <c r="C271" t="s">
         <v>1835</v>
@@ -28787,7 +28787,7 @@
         <v>19713</v>
       </c>
       <c r="B272" t="n">
-        <v>142837</v>
+        <v>174036</v>
       </c>
       <c r="C272" t="s">
         <v>1841</v>
@@ -28858,7 +28858,7 @@
         <v>19713</v>
       </c>
       <c r="B273" t="n">
-        <v>142838</v>
+        <v>174037</v>
       </c>
       <c r="C273" t="s">
         <v>1847</v>
@@ -28995,7 +28995,7 @@
         <v>19713</v>
       </c>
       <c r="B275" t="n">
-        <v>142839</v>
+        <v>174038</v>
       </c>
       <c r="C275" t="s">
         <v>1860</v>
@@ -29141,7 +29141,7 @@
         <v>19713</v>
       </c>
       <c r="B277" t="n">
-        <v>142840</v>
+        <v>174039</v>
       </c>
       <c r="C277" t="s">
         <v>1875</v>
@@ -29342,7 +29342,7 @@
         <v>19713</v>
       </c>
       <c r="B280" t="n">
-        <v>142841</v>
+        <v>174040</v>
       </c>
       <c r="C280" t="s">
         <v>1898</v>
@@ -29474,7 +29474,7 @@
         <v>19713</v>
       </c>
       <c r="B282" t="n">
-        <v>142842</v>
+        <v>174041</v>
       </c>
       <c r="C282" t="s">
         <v>1910</v>
@@ -29545,7 +29545,7 @@
         <v>19713</v>
       </c>
       <c r="B283" t="n">
-        <v>142843</v>
+        <v>174042</v>
       </c>
       <c r="C283" t="s">
         <v>1915</v>
@@ -29687,7 +29687,7 @@
         <v>19713</v>
       </c>
       <c r="B285" t="n">
-        <v>142844</v>
+        <v>174043</v>
       </c>
       <c r="C285" t="s">
         <v>1927</v>
@@ -29831,7 +29831,7 @@
         <v>19713</v>
       </c>
       <c r="B287" t="n">
-        <v>142845</v>
+        <v>174044</v>
       </c>
       <c r="C287" t="s">
         <v>1942</v>
@@ -29904,7 +29904,7 @@
         <v>19713</v>
       </c>
       <c r="B288" t="n">
-        <v>142846</v>
+        <v>174045</v>
       </c>
       <c r="C288" t="s">
         <v>1948</v>
@@ -30042,7 +30042,7 @@
         <v>19713</v>
       </c>
       <c r="B290" t="n">
-        <v>142847</v>
+        <v>174046</v>
       </c>
       <c r="C290" t="s">
         <v>1960</v>
@@ -30109,7 +30109,7 @@
         <v>19713</v>
       </c>
       <c r="B291" t="n">
-        <v>142848</v>
+        <v>174047</v>
       </c>
       <c r="C291" t="s">
         <v>1968</v>
@@ -30172,7 +30172,7 @@
         <v>19713</v>
       </c>
       <c r="B292" t="n">
-        <v>142849</v>
+        <v>174048</v>
       </c>
       <c r="C292" t="s">
         <v>1974</v>
@@ -30951,7 +30951,7 @@
         <v>19713</v>
       </c>
       <c r="B303" t="n">
-        <v>142850</v>
+        <v>174049</v>
       </c>
       <c r="C303" t="s">
         <v>2047</v>
@@ -31089,7 +31089,7 @@
         <v>19713</v>
       </c>
       <c r="B305" t="n">
-        <v>142851</v>
+        <v>174050</v>
       </c>
       <c r="C305" t="s">
         <v>2060</v>
@@ -31298,7 +31298,7 @@
         <v>19713</v>
       </c>
       <c r="B308" t="n">
-        <v>142852</v>
+        <v>174051</v>
       </c>
       <c r="C308" t="s">
         <v>2080</v>
@@ -31369,7 +31369,7 @@
         <v>19713</v>
       </c>
       <c r="B309" t="n">
-        <v>142853</v>
+        <v>174052</v>
       </c>
       <c r="C309" t="s">
         <v>2086</v>
@@ -31436,7 +31436,7 @@
         <v>19713</v>
       </c>
       <c r="B310" t="n">
-        <v>142854</v>
+        <v>174053</v>
       </c>
       <c r="C310" t="s">
         <v>2093</v>
@@ -31578,7 +31578,7 @@
         <v>19713</v>
       </c>
       <c r="B312" t="n">
-        <v>142855</v>
+        <v>174054</v>
       </c>
       <c r="C312" t="s">
         <v>2108</v>
@@ -31639,7 +31639,7 @@
         <v>19713</v>
       </c>
       <c r="B313" t="n">
-        <v>142856</v>
+        <v>174055</v>
       </c>
       <c r="C313" t="s">
         <v>2114</v>
@@ -31923,7 +31923,7 @@
         <v>19713</v>
       </c>
       <c r="B317" t="n">
-        <v>142857</v>
+        <v>142755</v>
       </c>
       <c r="C317" t="s">
         <v>2137</v>
@@ -31994,7 +31994,7 @@
         <v>19713</v>
       </c>
       <c r="B318" t="n">
-        <v>142858</v>
+        <v>174056</v>
       </c>
       <c r="C318" t="s">
         <v>2143</v>
@@ -32211,7 +32211,7 @@
         <v>19713</v>
       </c>
       <c r="B321" t="n">
-        <v>142859</v>
+        <v>174057</v>
       </c>
       <c r="C321" t="s">
         <v>2166</v>
@@ -32344,7 +32344,7 @@
         <v>19713</v>
       </c>
       <c r="B323" t="n">
-        <v>142860</v>
+        <v>174058</v>
       </c>
       <c r="C323" t="s">
         <v>2175</v>
@@ -32409,7 +32409,7 @@
         <v>19713</v>
       </c>
       <c r="B324" t="n">
-        <v>142861</v>
+        <v>174059</v>
       </c>
       <c r="C324" t="s">
         <v>2181</v>
@@ -32480,7 +32480,7 @@
         <v>19713</v>
       </c>
       <c r="B325" t="n">
-        <v>142862</v>
+        <v>174060</v>
       </c>
       <c r="C325" t="s">
         <v>2186</v>
@@ -32551,7 +32551,7 @@
         <v>19713</v>
       </c>
       <c r="B326" t="n">
-        <v>142863</v>
+        <v>174061</v>
       </c>
       <c r="C326" t="s">
         <v>2192</v>
@@ -32616,7 +32616,7 @@
         <v>19713</v>
       </c>
       <c r="B327" t="n">
-        <v>142864</v>
+        <v>174062</v>
       </c>
       <c r="C327" t="s">
         <v>2198</v>
@@ -32758,7 +32758,7 @@
         <v>19713</v>
       </c>
       <c r="B329" t="n">
-        <v>142865</v>
+        <v>174063</v>
       </c>
       <c r="C329" t="s">
         <v>2212</v>
@@ -32825,7 +32825,7 @@
         <v>19713</v>
       </c>
       <c r="B330" t="n">
-        <v>142866</v>
+        <v>174064</v>
       </c>
       <c r="C330" t="s">
         <v>2218</v>
@@ -32900,7 +32900,7 @@
         <v>19713</v>
       </c>
       <c r="B331" t="n">
-        <v>142867</v>
+        <v>174065</v>
       </c>
       <c r="C331" t="s">
         <v>2227</v>
@@ -32971,7 +32971,7 @@
         <v>19713</v>
       </c>
       <c r="B332" t="n">
-        <v>142868</v>
+        <v>174066</v>
       </c>
       <c r="C332" t="s">
         <v>2232</v>
@@ -33111,7 +33111,7 @@
         <v>19713</v>
       </c>
       <c r="B334" t="n">
-        <v>142869</v>
+        <v>174067</v>
       </c>
       <c r="C334" t="s">
         <v>2248</v>
@@ -33328,7 +33328,7 @@
         <v>19713</v>
       </c>
       <c r="B337" t="n">
-        <v>142870</v>
+        <v>174068</v>
       </c>
       <c r="C337" t="s">
         <v>2268</v>
@@ -33399,7 +33399,7 @@
         <v>19713</v>
       </c>
       <c r="B338" t="n">
-        <v>142871</v>
+        <v>174069</v>
       </c>
       <c r="C338" t="s">
         <v>2273</v>
@@ -33610,7 +33610,7 @@
         <v>19713</v>
       </c>
       <c r="B341" t="n">
-        <v>142872</v>
+        <v>174070</v>
       </c>
       <c r="C341" t="s">
         <v>2293</v>
@@ -33681,7 +33681,7 @@
         <v>19713</v>
       </c>
       <c r="B342" t="n">
-        <v>142873</v>
+        <v>174071</v>
       </c>
       <c r="C342" t="s">
         <v>2299</v>
@@ -33752,7 +33752,7 @@
         <v>19713</v>
       </c>
       <c r="B343" t="n">
-        <v>142874</v>
+        <v>174072</v>
       </c>
       <c r="C343" t="s">
         <v>2304</v>
@@ -33823,7 +33823,7 @@
         <v>19713</v>
       </c>
       <c r="B344" t="n">
-        <v>142875</v>
+        <v>174073</v>
       </c>
       <c r="C344" t="s">
         <v>2310</v>
@@ -33965,7 +33965,7 @@
         <v>19713</v>
       </c>
       <c r="B346" t="n">
-        <v>142876</v>
+        <v>174074</v>
       </c>
       <c r="C346" t="s">
         <v>2326</v>
@@ -34182,7 +34182,7 @@
         <v>19713</v>
       </c>
       <c r="B349" t="n">
-        <v>142877</v>
+        <v>174075</v>
       </c>
       <c r="C349" t="s">
         <v>2348</v>
@@ -34328,7 +34328,7 @@
         <v>19713</v>
       </c>
       <c r="B351" t="n">
-        <v>142878</v>
+        <v>174076</v>
       </c>
       <c r="C351" t="s">
         <v>2362</v>
@@ -34474,7 +34474,7 @@
         <v>19713</v>
       </c>
       <c r="B353" t="n">
-        <v>142879</v>
+        <v>174077</v>
       </c>
       <c r="C353" t="s">
         <v>2374</v>
@@ -34545,7 +34545,7 @@
         <v>19713</v>
       </c>
       <c r="B354" t="n">
-        <v>142856</v>
+        <v>142755</v>
       </c>
       <c r="C354" t="s">
         <v>2137</v>
@@ -34616,7 +34616,7 @@
         <v>19713</v>
       </c>
       <c r="B355" t="n">
-        <v>142880</v>
+        <v>174078</v>
       </c>
       <c r="C355" t="s">
         <v>2386</v>
@@ -34687,7 +34687,7 @@
         <v>19713</v>
       </c>
       <c r="B356" t="n">
-        <v>142881</v>
+        <v>174079</v>
       </c>
       <c r="C356" t="s">
         <v>2392</v>
@@ -34754,7 +34754,7 @@
         <v>19713</v>
       </c>
       <c r="B357" t="n">
-        <v>142882</v>
+        <v>174080</v>
       </c>
       <c r="C357" t="s">
         <v>2399</v>
@@ -34825,7 +34825,7 @@
         <v>19713</v>
       </c>
       <c r="B358" t="n">
-        <v>142883</v>
+        <v>174081</v>
       </c>
       <c r="C358" t="s">
         <v>2405</v>
@@ -34971,7 +34971,7 @@
         <v>19713</v>
       </c>
       <c r="B360" t="n">
-        <v>142884</v>
+        <v>174082</v>
       </c>
       <c r="C360" t="s">
         <v>2420</v>
@@ -35107,7 +35107,7 @@
         <v>19713</v>
       </c>
       <c r="B362" t="n">
-        <v>142885</v>
+        <v>174083</v>
       </c>
       <c r="C362" t="s">
         <v>2432</v>
@@ -35168,7 +35168,7 @@
         <v>19713</v>
       </c>
       <c r="B363" t="n">
-        <v>142886</v>
+        <v>174084</v>
       </c>
       <c r="C363" t="s">
         <v>2439</v>
@@ -35239,7 +35239,7 @@
         <v>19713</v>
       </c>
       <c r="B364" t="n">
-        <v>142887</v>
+        <v>174085</v>
       </c>
       <c r="C364" t="s">
         <v>2448</v>
@@ -35314,7 +35314,7 @@
         <v>19713</v>
       </c>
       <c r="B365" t="n">
-        <v>142888</v>
+        <v>174086</v>
       </c>
       <c r="C365" t="s">
         <v>2458</v>
@@ -35385,7 +35385,7 @@
         <v>19713</v>
       </c>
       <c r="B366" t="n">
-        <v>142889</v>
+        <v>174087</v>
       </c>
       <c r="C366" t="s">
         <v>2464</v>
@@ -35456,7 +35456,7 @@
         <v>19713</v>
       </c>
       <c r="B367" t="n">
-        <v>142890</v>
+        <v>174088</v>
       </c>
       <c r="C367" t="s">
         <v>2471</v>
@@ -35527,7 +35527,7 @@
         <v>19713</v>
       </c>
       <c r="B368" t="n">
-        <v>142891</v>
+        <v>174089</v>
       </c>
       <c r="C368" t="s">
         <v>2480</v>
@@ -35602,7 +35602,7 @@
         <v>19713</v>
       </c>
       <c r="B369" t="n">
-        <v>142892</v>
+        <v>174090</v>
       </c>
       <c r="C369" t="s">
         <v>2490</v>
@@ -35744,7 +35744,7 @@
         <v>19713</v>
       </c>
       <c r="B371" t="n">
-        <v>142893</v>
+        <v>174091</v>
       </c>
       <c r="C371" t="s">
         <v>2503</v>
@@ -35886,7 +35886,7 @@
         <v>19713</v>
       </c>
       <c r="B373" t="n">
-        <v>142894</v>
+        <v>174092</v>
       </c>
       <c r="C373" t="s">
         <v>2516</v>
@@ -35957,7 +35957,7 @@
         <v>19713</v>
       </c>
       <c r="B374" t="n">
-        <v>142895</v>
+        <v>174093</v>
       </c>
       <c r="C374" t="s">
         <v>2523</v>
@@ -36028,7 +36028,7 @@
         <v>19713</v>
       </c>
       <c r="B375" t="n">
-        <v>142896</v>
+        <v>174094</v>
       </c>
       <c r="C375" t="s">
         <v>2532</v>
@@ -36095,7 +36095,7 @@
         <v>19713</v>
       </c>
       <c r="B376" t="n">
-        <v>142897</v>
+        <v>174095</v>
       </c>
       <c r="C376" t="s">
         <v>2539</v>
@@ -36166,7 +36166,7 @@
         <v>19713</v>
       </c>
       <c r="B377" t="n">
-        <v>142898</v>
+        <v>174096</v>
       </c>
       <c r="C377" t="s">
         <v>2546</v>
@@ -36231,7 +36231,7 @@
         <v>19713</v>
       </c>
       <c r="B378" t="n">
-        <v>142899</v>
+        <v>142762</v>
       </c>
       <c r="C378" t="s">
         <v>2556</v>
@@ -36373,7 +36373,7 @@
         <v>19713</v>
       </c>
       <c r="B380" t="n">
-        <v>142900</v>
+        <v>174097</v>
       </c>
       <c r="C380" t="s">
         <v>2571</v>
@@ -36448,7 +36448,7 @@
         <v>19713</v>
       </c>
       <c r="B381" t="n">
-        <v>142901</v>
+        <v>174098</v>
       </c>
       <c r="C381" t="s">
         <v>2580</v>
@@ -36519,7 +36519,7 @@
         <v>19713</v>
       </c>
       <c r="B382" t="n">
-        <v>142902</v>
+        <v>174099</v>
       </c>
       <c r="C382" t="s">
         <v>2589</v>
@@ -36590,7 +36590,7 @@
         <v>19713</v>
       </c>
       <c r="B383" t="n">
-        <v>142903</v>
+        <v>174100</v>
       </c>
       <c r="C383" t="s">
         <v>2597</v>
@@ -36740,7 +36740,7 @@
         <v>19713</v>
       </c>
       <c r="B385" t="n">
-        <v>142898</v>
+        <v>142762</v>
       </c>
       <c r="C385" t="s">
         <v>2556</v>
@@ -36815,7 +36815,7 @@
         <v>19713</v>
       </c>
       <c r="B386" t="n">
-        <v>142904</v>
+        <v>174101</v>
       </c>
       <c r="C386" t="s">
         <v>2624</v>
@@ -36965,7 +36965,7 @@
         <v>19713</v>
       </c>
       <c r="B388" t="n">
-        <v>142905</v>
+        <v>174102</v>
       </c>
       <c r="C388" t="s">
         <v>2644</v>
@@ -37040,7 +37040,7 @@
         <v>19713</v>
       </c>
       <c r="B389" t="n">
-        <v>142906</v>
+        <v>174103</v>
       </c>
       <c r="C389" t="s">
         <v>2651</v>
@@ -37186,7 +37186,7 @@
         <v>19713</v>
       </c>
       <c r="B391" t="n">
-        <v>142907</v>
+        <v>174104</v>
       </c>
       <c r="C391" t="s">
         <v>2669</v>
@@ -37261,7 +37261,7 @@
         <v>19713</v>
       </c>
       <c r="B392" t="n">
-        <v>142908</v>
+        <v>174105</v>
       </c>
       <c r="C392" t="s">
         <v>2679</v>
@@ -37336,7 +37336,7 @@
         <v>19713</v>
       </c>
       <c r="B393" t="n">
-        <v>142909</v>
+        <v>174106</v>
       </c>
       <c r="C393" t="s">
         <v>2689</v>
@@ -37401,7 +37401,7 @@
         <v>19713</v>
       </c>
       <c r="B394" t="n">
-        <v>142722</v>
+        <v>142765</v>
       </c>
       <c r="C394" t="s">
         <v>768</v>
@@ -37476,7 +37476,7 @@
         <v>19713</v>
       </c>
       <c r="B395" t="n">
-        <v>142910</v>
+        <v>174107</v>
       </c>
       <c r="C395" t="s">
         <v>2705</v>
@@ -37551,7 +37551,7 @@
         <v>19713</v>
       </c>
       <c r="B396" t="n">
-        <v>142911</v>
+        <v>174108</v>
       </c>
       <c r="C396" t="s">
         <v>2715</v>
@@ -37622,7 +37622,7 @@
         <v>19713</v>
       </c>
       <c r="B397" t="n">
-        <v>142912</v>
+        <v>174109</v>
       </c>
       <c r="C397" t="s">
         <v>2724</v>
@@ -37843,7 +37843,7 @@
         <v>19713</v>
       </c>
       <c r="B400" t="n">
-        <v>142913</v>
+        <v>174110</v>
       </c>
       <c r="C400" t="s">
         <v>2749</v>
@@ -37916,7 +37916,7 @@
         <v>19713</v>
       </c>
       <c r="B401" t="n">
-        <v>142914</v>
+        <v>174111</v>
       </c>
       <c r="C401" t="s">
         <v>2759</v>
@@ -37991,7 +37991,7 @@
         <v>19713</v>
       </c>
       <c r="B402" t="n">
-        <v>142915</v>
+        <v>174112</v>
       </c>
       <c r="C402" t="s">
         <v>2767</v>
@@ -38066,7 +38066,7 @@
         <v>19713</v>
       </c>
       <c r="B403" t="n">
-        <v>142916</v>
+        <v>174113</v>
       </c>
       <c r="C403" t="s">
         <v>2775</v>
@@ -38208,7 +38208,7 @@
         <v>19713</v>
       </c>
       <c r="B405" t="n">
-        <v>142917</v>
+        <v>174114</v>
       </c>
       <c r="C405" t="s">
         <v>2790</v>
@@ -38279,7 +38279,7 @@
         <v>19713</v>
       </c>
       <c r="B406" t="n">
-        <v>142918</v>
+        <v>174115</v>
       </c>
       <c r="C406" t="s">
         <v>2797</v>
@@ -38350,7 +38350,7 @@
         <v>19713</v>
       </c>
       <c r="B407" t="n">
-        <v>142775</v>
+        <v>142769</v>
       </c>
       <c r="C407" t="s">
         <v>1214</v>
@@ -38425,7 +38425,7 @@
         <v>19713</v>
       </c>
       <c r="B408" t="n">
-        <v>142919</v>
+        <v>174116</v>
       </c>
       <c r="C408" t="s">
         <v>2811</v>
@@ -38496,7 +38496,7 @@
         <v>19713</v>
       </c>
       <c r="B409" t="n">
-        <v>142920</v>
+        <v>174117</v>
       </c>
       <c r="C409" t="s">
         <v>2818</v>
@@ -38571,7 +38571,7 @@
         <v>19713</v>
       </c>
       <c r="B410" t="n">
-        <v>142921</v>
+        <v>174118</v>
       </c>
       <c r="C410" t="s">
         <v>2825</v>
@@ -38638,7 +38638,7 @@
         <v>19713</v>
       </c>
       <c r="B411" t="n">
-        <v>142922</v>
+        <v>174119</v>
       </c>
       <c r="C411" t="s">
         <v>2833</v>
@@ -38709,7 +38709,7 @@
         <v>19713</v>
       </c>
       <c r="B412" t="n">
-        <v>142923</v>
+        <v>174120</v>
       </c>
       <c r="C412" t="s">
         <v>2840</v>
@@ -38776,7 +38776,7 @@
         <v>19713</v>
       </c>
       <c r="B413" t="n">
-        <v>142924</v>
+        <v>174121</v>
       </c>
       <c r="C413" t="s">
         <v>2847</v>
@@ -38843,7 +38843,7 @@
         <v>19713</v>
       </c>
       <c r="B414" t="n">
-        <v>142925</v>
+        <v>174122</v>
       </c>
       <c r="C414" t="s">
         <v>2853</v>
@@ -38914,7 +38914,7 @@
         <v>19713</v>
       </c>
       <c r="B415" t="n">
-        <v>142926</v>
+        <v>174123</v>
       </c>
       <c r="C415" t="s">
         <v>2861</v>
@@ -38981,7 +38981,7 @@
         <v>19713</v>
       </c>
       <c r="B416" t="n">
-        <v>142927</v>
+        <v>174124</v>
       </c>
       <c r="C416" t="s">
         <v>2867</v>
@@ -39052,7 +39052,7 @@
         <v>19713</v>
       </c>
       <c r="B417" t="n">
-        <v>142928</v>
+        <v>174125</v>
       </c>
       <c r="C417" t="s">
         <v>2875</v>
@@ -39123,7 +39123,7 @@
         <v>19713</v>
       </c>
       <c r="B418" t="n">
-        <v>142929</v>
+        <v>174126</v>
       </c>
       <c r="C418" t="s">
         <v>2882</v>
@@ -39194,7 +39194,7 @@
         <v>19713</v>
       </c>
       <c r="B419" t="n">
-        <v>142930</v>
+        <v>174127</v>
       </c>
       <c r="C419" t="s">
         <v>2889</v>
@@ -39255,7 +39255,7 @@
         <v>19713</v>
       </c>
       <c r="B420" t="n">
-        <v>142931</v>
+        <v>174128</v>
       </c>
       <c r="C420" t="s">
         <v>2895</v>
@@ -39458,7 +39458,7 @@
         <v>19713</v>
       </c>
       <c r="B423" t="n">
-        <v>142932</v>
+        <v>174129</v>
       </c>
       <c r="C423" t="s">
         <v>2916</v>
@@ -39529,7 +39529,7 @@
         <v>19713</v>
       </c>
       <c r="B424" t="n">
-        <v>142933</v>
+        <v>174130</v>
       </c>
       <c r="C424" t="s">
         <v>2924</v>
@@ -39596,7 +39596,7 @@
         <v>19713</v>
       </c>
       <c r="B425" t="n">
-        <v>142934</v>
+        <v>174131</v>
       </c>
       <c r="C425" t="s">
         <v>2931</v>
@@ -39667,7 +39667,7 @@
         <v>19713</v>
       </c>
       <c r="B426" t="n">
-        <v>142935</v>
+        <v>174132</v>
       </c>
       <c r="C426" t="s">
         <v>2939</v>
@@ -39738,7 +39738,7 @@
         <v>19713</v>
       </c>
       <c r="B427" t="n">
-        <v>142936</v>
+        <v>174133</v>
       </c>
       <c r="C427" t="s">
         <v>2947</v>
@@ -39809,7 +39809,7 @@
         <v>19713</v>
       </c>
       <c r="B428" t="n">
-        <v>142937</v>
+        <v>174134</v>
       </c>
       <c r="C428" t="s">
         <v>2954</v>
@@ -39880,7 +39880,7 @@
         <v>19713</v>
       </c>
       <c r="B429" t="n">
-        <v>142938</v>
+        <v>174135</v>
       </c>
       <c r="C429" t="s">
         <v>2961</v>
@@ -39951,7 +39951,7 @@
         <v>19713</v>
       </c>
       <c r="B430" t="n">
-        <v>142939</v>
+        <v>174136</v>
       </c>
       <c r="C430" t="s">
         <v>2969</v>
@@ -40016,7 +40016,7 @@
         <v>19713</v>
       </c>
       <c r="B431" t="n">
-        <v>142940</v>
+        <v>174137</v>
       </c>
       <c r="C431" t="s">
         <v>2976</v>
@@ -40073,7 +40073,7 @@
         <v>19713</v>
       </c>
       <c r="B432" t="n">
-        <v>142941</v>
+        <v>174138</v>
       </c>
       <c r="C432" t="s">
         <v>2982</v>
@@ -40142,7 +40142,7 @@
         <v>19713</v>
       </c>
       <c r="B433" t="n">
-        <v>142942</v>
+        <v>174139</v>
       </c>
       <c r="C433" t="s">
         <v>2990</v>
@@ -40199,7 +40199,7 @@
         <v>19713</v>
       </c>
       <c r="B434" t="n">
-        <v>142943</v>
+        <v>174140</v>
       </c>
       <c r="C434" t="s">
         <v>2997</v>
@@ -40321,7 +40321,7 @@
         <v>19713</v>
       </c>
       <c r="B436" t="n">
-        <v>142944</v>
+        <v>174141</v>
       </c>
       <c r="C436" t="s">
         <v>3011</v>
